--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin Veenema\Documents\PowerTroll PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\powertroll-pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,6 +366,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -401,6 +418,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -556,7 +590,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,6 +713,9 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -736,6 +773,9 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -753,6 +793,9 @@
       <c r="E10" t="s">
         <v>28</v>
       </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -770,6 +813,9 @@
       <c r="E11" t="s">
         <v>31</v>
       </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -867,6 +913,9 @@
       <c r="E16" t="s">
         <v>43</v>
       </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -884,6 +933,9 @@
       <c r="E17" t="s">
         <v>46</v>
       </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -900,6 +952,9 @@
       </c>
       <c r="E18" t="s">
         <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
